--- a/GameJam-wy2023/Plugins/LuBan/Configs/Datas/__tables__.xlsx
+++ b/GameJam-wy2023/Plugins/LuBan/Configs/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22782" windowHeight="12257"/>
+    <workbookView windowWidth="22782" windowHeight="12608"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>item.xlsx</t>
+  </si>
+  <si>
+    <t>TbNpc</t>
+  </si>
+  <si>
+    <t>Npc</t>
+  </si>
+  <si>
+    <t>npc.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1054,13 +1063,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1183,6 +1192,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
